--- a/LOGS/3dc31b6a-137c-436b-add1-2fbe8291f93a/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/3dc31b6a-137c-436b-add1-2fbe8291f93a/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="49">
   <si>
     <t>rows</t>
   </si>
@@ -38,6 +38,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Trade Debtors</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>None TOTAL RECEIVABLES</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>None nan Charges paid in Advance</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>12 months ended $</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>NOTE 10: nan Office &amp; Machines, Furniture Fittings- at Cost Less: Accumulated Depreciation</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>NOTE 10: nan Office Fixtures &amp; Fittings</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>None nan Investments in Unlisted Companies at Cost</t>
   </si>
   <si>
@@ -89,12 +101,18 @@
     <t>12 months ended 31 March 2022 $ 12 months ended 31 March 2022 $</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>NOTE 12: nan Advance Payments and Deposits</t>
   </si>
   <si>
     <t>NOTE 12: Total nan</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>NOTE 13: nan Office Lease</t>
   </si>
   <si>
@@ -107,6 +125,9 @@
     <t>NOTE 13: nan Machinery</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>NOTE 14: nan Trade Creditors</t>
   </si>
   <si>
@@ -116,6 +137,9 @@
     <t>NOTE 14: Total nan</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Uncommitted Short Term Revolving Loan Facility</t>
   </si>
   <si>
@@ -125,22 +149,28 @@
     <t>12 months ended</t>
   </si>
   <si>
-    <t>Total Provision</t>
-  </si>
-  <si>
-    <t>Total Provision for</t>
-  </si>
-  <si>
-    <t>Total Total</t>
-  </si>
-  <si>
-    <t>Total Provision for Long</t>
-  </si>
-  <si>
-    <t>Total Financial</t>
-  </si>
-  <si>
-    <t>Total Advance</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>None Provision</t>
+  </si>
+  <si>
+    <t>None Provision for</t>
+  </si>
+  <si>
+    <t>None Provision for Long</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>None Financial</t>
+  </si>
+  <si>
+    <t>None Advance</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -498,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,10 +547,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -528,10 +561,13 @@
       <c r="D2">
         <v>4673248</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -539,10 +575,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -550,10 +589,13 @@
       <c r="D4">
         <v>4673248</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -561,10 +603,13 @@
       <c r="D5">
         <v>2145534</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -572,10 +617,13 @@
       <c r="D6">
         <v>23152</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -583,10 +631,13 @@
       <c r="D7">
         <v>6841934</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -594,10 +645,13 @@
       <c r="D8">
         <v>2444148</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -605,10 +659,13 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -616,10 +673,13 @@
       <c r="D10">
         <v>2444148</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -627,10 +687,13 @@
       <c r="D11">
         <v>1615891</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -638,16 +701,22 @@
       <c r="D12">
         <v>26265</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>4086305</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -657,13 +726,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,10 +745,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -687,10 +759,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -698,10 +773,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -709,10 +787,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -720,10 +801,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -731,10 +815,13 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -742,10 +829,13 @@
       <c r="D7">
         <v>134131</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -753,10 +843,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -764,10 +857,13 @@
       <c r="D9">
         <v>54407</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -775,10 +871,13 @@
       <c r="D10">
         <v>51952</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -786,10 +885,13 @@
       <c r="D11">
         <v>-4372</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -797,10 +899,13 @@
       <c r="D12">
         <v>1874</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -808,10 +913,13 @@
       <c r="D13">
         <v>30270</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -819,16 +927,22 @@
       <c r="D14">
         <v>63080</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>54716</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +952,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,10 +971,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -868,10 +985,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -879,10 +999,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -890,10 +1013,13 @@
       <c r="D4">
         <v>545418</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -901,10 +1027,13 @@
       <c r="D5">
         <v>86727</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -912,16 +1041,22 @@
       <c r="D6">
         <v>458691</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>141911</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -931,13 +1066,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,13 +1085,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -964,13 +1102,16 @@
       <c r="D2">
         <v>143788</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -978,13 +1119,16 @@
       <c r="D3">
         <v>173008</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -992,13 +1136,16 @@
       <c r="D4">
         <v>316796</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1006,13 +1153,16 @@
       <c r="D5">
         <v>420436</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1020,19 +1170,25 @@
       <c r="D6">
         <v>113432</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>533868</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1042,13 +1198,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,10 +1217,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1072,10 +1231,13 @@
       <c r="D2">
         <v>53962</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1083,10 +1245,13 @@
       <c r="D3">
         <v>42349</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1094,10 +1259,13 @@
       <c r="D4">
         <v>11613</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1105,10 +1273,13 @@
       <c r="D5">
         <v>4064</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1116,10 +1287,13 @@
       <c r="D6">
         <v>9261</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1127,10 +1301,13 @@
       <c r="D7">
         <v>13325</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1138,10 +1315,13 @@
       <c r="D8">
         <v>4412</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1149,10 +1329,13 @@
       <c r="D9">
         <v>1374</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1160,10 +1343,13 @@
       <c r="D10">
         <v>5786</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1171,10 +1357,13 @@
       <c r="D11">
         <v>4074</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1182,10 +1371,13 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1193,10 +1385,13 @@
       <c r="D13">
         <v>4074</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1204,10 +1399,13 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1215,10 +1413,13 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1226,10 +1427,13 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1237,10 +1441,13 @@
       <c r="D17">
         <v>3727</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1248,10 +1455,13 @@
       <c r="D18">
         <v>7886</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1259,10 +1469,13 @@
       <c r="D19">
         <v>11613</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1270,10 +1483,13 @@
       <c r="D20">
         <v>49932</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1281,10 +1497,13 @@
       <c r="D21">
         <v>36607</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1292,10 +1511,13 @@
       <c r="D22">
         <v>13325</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1303,10 +1525,13 @@
       <c r="D23">
         <v>627</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1314,10 +1539,13 @@
       <c r="D24">
         <v>10813</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1325,10 +1553,13 @@
       <c r="D25">
         <v>11440</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1336,10 +1567,13 @@
       <c r="D26">
         <v>2728</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -1347,10 +1581,13 @@
       <c r="D27">
         <v>1553</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1358,10 +1595,13 @@
       <c r="D28">
         <v>4281</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1369,10 +1609,13 @@
       <c r="D29">
         <v>6165</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1380,10 +1623,13 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1391,10 +1637,13 @@
       <c r="D31">
         <v>6165</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1402,10 +1651,13 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -1413,10 +1665,13 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -1424,10 +1679,13 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1435,10 +1693,13 @@
       <c r="D35">
         <v>4064</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -1446,16 +1707,22 @@
       <c r="D36">
         <v>9261</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>2022</v>
       </c>
       <c r="D37">
         <v>13325</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1465,13 +1732,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1484,13 +1751,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1498,13 +1768,16 @@
       <c r="D2">
         <v>330001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1512,13 +1785,16 @@
       <c r="D3">
         <v>330001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1526,19 +1802,25 @@
       <c r="D4">
         <v>330001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>330001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1548,13 +1830,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,10 +1849,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1578,10 +1863,13 @@
       <c r="D2">
         <v>4600</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1589,10 +1877,13 @@
       <c r="D3">
         <v>4600</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1600,16 +1891,22 @@
       <c r="D4">
         <v>4600</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>4600</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1619,13 +1916,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,10 +1935,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1649,10 +1949,13 @@
       <c r="D2">
         <v>519983</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1660,10 +1963,13 @@
       <c r="D3">
         <v>164661</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1671,10 +1977,13 @@
       <c r="D4">
         <v>355322</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1682,10 +1991,13 @@
       <c r="D5">
         <v>7906</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1693,10 +2005,13 @@
       <c r="D6">
         <v>5007</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1704,10 +2019,13 @@
       <c r="D7">
         <v>2899</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1715,10 +2033,13 @@
       <c r="D8">
         <v>358221</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1726,10 +2047,13 @@
       <c r="D9">
         <v>519983</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1737,10 +2061,13 @@
       <c r="D10">
         <v>60665</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1748,10 +2075,13 @@
       <c r="D11">
         <v>459318</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1759,10 +2089,13 @@
       <c r="D12">
         <v>7906</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1770,10 +2103,13 @@
       <c r="D13">
         <v>3426</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1781,16 +2117,22 @@
       <c r="D14">
         <v>4480</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>463799</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1800,13 +2142,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,10 +2161,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1830,10 +2175,13 @@
       <c r="D2">
         <v>1625023</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1841,10 +2189,13 @@
       <c r="D3">
         <v>101119</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1852,10 +2203,13 @@
       <c r="D4">
         <v>1726142</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1863,10 +2217,13 @@
       <c r="D5">
         <v>1453449</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1874,16 +2231,22 @@
       <c r="D6">
         <v>73436</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>1526885</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1893,13 +2256,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,13 +2275,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1926,13 +2292,16 @@
       <c r="D2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1940,13 +2309,16 @@
       <c r="D3">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1954,19 +2326,25 @@
       <c r="D4">
         <v>995000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>995000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
